--- a/数据整理/stocks/A股/上证主板/600422-昆药集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600422-昆药集团.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -849,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,17 +861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -880,13 +901,407 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4506</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>9</v>
       </c>
       <c r="D2" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600422-昆药集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600422-昆药集团.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9</v>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2123</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1295,13 +1338,193 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>9</v>
       </c>
       <c r="D3" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600422-昆药集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600422-昆药集团.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012284</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>光大保德信健康优加混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.66</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>63.01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3285</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011269</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中银证券优势制造股票型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1621</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="4">
@@ -580,264 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004818</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>28.73</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1428</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004819</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>28.73</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0395</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011270</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中银证券优势制造股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.10</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006890</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>上投摩根领先优选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.94</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004549</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富安达消费主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004913</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中银证券聚瑞混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>44.28</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004914</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中银证券聚瑞混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>44.28</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
+      <c r="D4" t="n">
+        <v>0.71</v>
       </c>
     </row>
   </sheetData>
@@ -846,6 +532,212 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2123</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1243,13 +1135,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1300,36 +1192,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000780</t>
+          <t>012284</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华医疗保健股票</t>
+          <t>光大保德信健康优加混合型证券投资基金</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>17.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.28</t>
+          <t>63.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2123</t>
+          <t>0.3285</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1338,36 +1230,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>487016</t>
+          <t>011269</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信灵活配置混合A</t>
+          <t>中银证券优势制造股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>72.38</t>
+          <t>88.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0336</t>
+          <t>0.1621</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1376,36 +1268,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010434</t>
+          <t>004818</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>红土创新医疗保健股票</t>
+          <t>国寿安保目标策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>28.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0323</t>
+          <t>0.1428</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1414,118 +1306,226 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001428</t>
+          <t>004819</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信灵活配置混合B</t>
+          <t>国寿安保目标策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>72.38</t>
+          <t>28.73</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
       </c>
       <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.71</v>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600422-昆药集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600422-昆药集团.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.28</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.71</v>
       </c>
     </row>
@@ -532,6 +549,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2604</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013836</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时时代消费混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014175</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014176</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014750</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013837</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时时代消费混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -730,404 +1145,6 @@
       </c>
       <c r="H5" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012284</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>光大保德信健康优加混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.49</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4506</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004818</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>36.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1255</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001672</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国寿安保智慧生活股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1175</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003243</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.74</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0481</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003244</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.74</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0481</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003245</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.74</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0481</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010434</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>红土创新医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0354</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004819</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>36.45</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0176</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006890</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>上投摩根领先优选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>79.50</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1202,6 +1219,404 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>14.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4506</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>17.66</t>
         </is>
       </c>

--- a/数据整理/stocks/A股/上证主板/600422-昆药集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600422-昆药集团.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.57</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.28</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>9</v>
       </c>
       <c r="D5" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.71</v>
       </c>
     </row>
@@ -549,6 +566,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>141.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0484</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4132</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8792</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银养老产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8059</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7597</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012238</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银养老产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>016313</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -946,7 +1437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1145,404 +1636,6 @@
       </c>
       <c r="H5" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012284</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>光大保德信健康优加混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.49</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4506</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004818</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>36.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1255</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001672</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国寿安保智慧生活股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1175</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003243</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.74</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0481</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003244</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.74</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0481</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003245</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.74</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0481</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010434</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>红土创新医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0354</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004819</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>36.45</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0176</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006890</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>上投摩根领先优选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>79.50</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1617,6 +1710,404 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>14.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4506</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>17.66</t>
         </is>
       </c>
